--- a/Resultados_GEOcan_GEOvar/Graficos_GEO_GEOvar_TESE_VERIFICACAO.xlsx
+++ b/Resultados_GEOcan_GEOvar/Graficos_GEO_GEOvar_TESE_VERIFICACAO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7950"/>
+    <workbookView windowWidth="14460" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F2" sheetId="10" r:id="rId1"/>
@@ -41,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000000_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,17 +63,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,14 +92,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,32 +99,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,13 +132,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,27 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,9 +153,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +216,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,61 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,97 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,23 +413,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,24 +475,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -507,153 +483,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -673,13 +673,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -3484,7 +3484,17 @@
   <c:chart>
     <c:autoTitleDeleted val="true"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.143124830490085"/>
+          <c:y val="0.0838323353293413"/>
+          <c:w val="0.792502762074057"/>
+          <c:h val="0.737005988023952"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="false"/>
@@ -3930,6 +3940,43 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" altLang="en-US"/>
+                  <a:t>Número de avaliações da função objetivo</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="false"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3977,20 +4024,43 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" altLang="en-US"/>
+                  <a:t>Fxmelhor</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="false"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4024,6 +4094,7 @@
         <c:crossAx val="492463095"/>
         <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4033,6 +4104,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.451221385773544"/>
+          <c:y val="0.317365269461078"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="false"/>
@@ -7440,13 +7549,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>172085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>594995</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7463,7 +7572,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="3143250"/>
+          <a:off x="495300" y="3134360"/>
           <a:ext cx="5567045" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7793,15 +7902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>618490</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7809,8 +7918,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6438900" y="5562600"/>
-        <a:ext cx="4133215" cy="3181350"/>
+        <a:off x="6067425" y="5516245"/>
+        <a:ext cx="3943350" cy="3608705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8125,7 +8234,7 @@
   <sheetPr/>
   <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G15" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
@@ -9745,8 +9854,8 @@
   <sheetPr/>
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
